--- a/docs/pages/tools/appearance_table_maker/excel/j_アクセサリー(頭部中段).xlsx
+++ b/docs/pages/tools/appearance_table_maker/excel/j_アクセサリー(頭部中段).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\appearance_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667CFFB7-A756-4731-B27F-F985A206156A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE16981-F83B-47C3-AA40-AB298A222810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,13 +529,12 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
